--- a/resources/excel files/TeacherLoginData.xlsx
+++ b/resources/excel files/TeacherLoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Documents\NetBeansProjects\JavaProject\src\Excel Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Documents\NetBeansProjects\JavaProject\resources\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B196FB91-81D3-42C6-B2D1-7B8CC8C46B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB03259-15BB-4712-B0CD-94C3B3240DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AA75AD4-7DB7-4495-9FC5-BC651BF0DDA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Teacher 3</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
   </si>
 </sst>
 </file>
@@ -86,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,73 +408,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA284E-E66A-4F2D-B31A-534B42E69234}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>101</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>101</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>102</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>102</v>
       </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>103</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>103</v>
       </c>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
